--- a/data/hotels_by_city/Denver/Denver_shard_38.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_38.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33691-d10533352-Reviews-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Westminster-Hotels-Courtyard-By-Marriott-Denver-NorthWestminster.h15604266.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=178254&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522717180988&amp;vip=false&amp;c=4346ad2b-daa9-446e-839b-5d3b6e94b511&amp;mctc=9&amp;exp_dp=127.4&amp;exp_ts=1522717181481&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,414 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r578915786-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>10533352</t>
+  </si>
+  <si>
+    <t>578915786</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>One Night Away</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night So we could get out of our house. This is a newer hotel within walking distance of many eateries, a hospital, and a movie theater. The service was great, and the staff was friendly and helpful. One thing that stuck out for me was the fact that the hotel supplied pool toys. I have never stayed at a hotel that kept its littlest customer in mind.  Also, the room was spacious, and we were able to move around even with the pull-out couch open. I would definitely recommend!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r576255439-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>576255439</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>One day work retreat</t>
+  </si>
+  <si>
+    <t>The service was outstanding! Everyone from the front desk, housekeeping in the hall, chefs, happy hour gal,  Alana in the bistro and Dawn were so welcoming. Their smiles and helpful attitudes were sincere and appreciated. The modern and clean rooms, lobby and outdoor space were so nice to relax in. The location is wonderful, close to restaurants, entertainment, and shopping. Two thumbs up!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r566158277-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>566158277</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Visiting grandchildren</t>
+  </si>
+  <si>
+    <t>Very nice facility.  Easy in and out.  Near I75 but not noisy.  Good breakfast.  Friendly and accommodating staff.  Wi-Fi.  We had a very enjoyable stay visiting grandchildren in area.  Easy access to Denver and Boulder.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r549567199-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>549567199</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>We stopped here driving through for one night. We arrived pretty late but our room was waiting with online check-in. This is a new Courtyard so everything is still nice and clean and well maintained. We would expect this to be the same as all Courtyards. The staff was nice and friendly and polite. Our room was a standard king. They are a bit tight but not bad for one night. The noise between rooms is a little too much. We had a connecting room and were able to hear the room next to us talking on the phone as if the door was open. Other than that everything was as expected at a Courtyard for a quick stop over. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stopped here driving through for one night. We arrived pretty late but our room was waiting with online check-in. This is a new Courtyard so everything is still nice and clean and well maintained. We would expect this to be the same as all Courtyards. The staff was nice and friendly and polite. Our room was a standard king. They are a bit tight but not bad for one night. The noise between rooms is a little too much. We had a connecting room and were able to hear the room next to us talking on the phone as if the door was open. Other than that everything was as expected at a Courtyard for a quick stop over. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r541284621-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>541284621</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent rooms and great service</t>
+  </si>
+  <si>
+    <t>As with most Marriotts this was well located, great rooms and efficient check in and out. Rooms are extremely well thought out with many little innovations. Simple things like the shower control not being under the shower head so you can turn it on without getting wet! Excellent!Good coffee in the morning and set up for quick and simple breakfasts.Has plenty of shops a short distance away - a great business location easy to find. About 30 mins to the airport.A great friendly bar service!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r540850311-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>540850311</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Average Property;great people</t>
+  </si>
+  <si>
+    <t>by the room size, bath size, I would call them an average property for the price they charge. They have an 'over the counter' kind of restaurant that has limited options to offer. Having said, whatever they serve is good in quality and also tastes good. The staff is also very cordial.The hotel doesn't offers Laundry service over the weekends. Hence , plan accordingly. I had reached there after a week stay at Brussels hence had quite a few stuffs to be laundered.The reception desk ladies and the housekeeping staff are helpful enough to help you do laundry at hotel's washing machine.Except for the limited choice of food availability and for the laundry service not available over weekend, its a recommended place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>by the room size, bath size, I would call them an average property for the price they charge. They have an 'over the counter' kind of restaurant that has limited options to offer. Having said, whatever they serve is good in quality and also tastes good. The staff is also very cordial.The hotel doesn't offers Laundry service over the weekends. Hence , plan accordingly. I had reached there after a week stay at Brussels hence had quite a few stuffs to be laundered.The reception desk ladies and the housekeeping staff are helpful enough to help you do laundry at hotel's washing machine.Except for the limited choice of food availability and for the laundry service not available over weekend, its a recommended place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r527840524-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>527840524</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Good Staff</t>
+  </si>
+  <si>
+    <t>New hotel with a very customer oriented staff. We called a day prior to arrival to ask that our room be ready for a noon check-in. The room was ready. The rooms are large. The hotel was quiet. Staff has excellent recommendations for restaurants, sights, and what to avoid. The Bistro staff was courteous and attentive the customer needs. Restaurants are within walking distance to the hotel. Denver is less than 15 miles away. We wanted to stay away from the noise and traffic of downtown. My only complaint which is more about Courtyard in general than this particular hotel is that when 2 people are booked into a room, the closet and drawers do not leave enough room for clothes when staying for more than one day. What was Marriott thinking?MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>New hotel with a very customer oriented staff. We called a day prior to arrival to ask that our room be ready for a noon check-in. The room was ready. The rooms are large. The hotel was quiet. Staff has excellent recommendations for restaurants, sights, and what to avoid. The Bistro staff was courteous and attentive the customer needs. Restaurants are within walking distance to the hotel. Denver is less than 15 miles away. We wanted to stay away from the noise and traffic of downtown. My only complaint which is more about Courtyard in general than this particular hotel is that when 2 people are booked into a room, the closet and drawers do not leave enough room for clothes when staying for more than one day. What was Marriott thinking?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r511852882-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>511852882</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Gold level service and accomodations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I had a great two day stay here.  The service and people have a great attitude.  The rooms are super nice and clean.  The hotel is only one year old so very new and in impeccable shape.  Restaurants in walking distance.  Hotel cafe has Starbucks and good breakfast selection.  </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r510727070-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>510727070</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Standout stay at a great property near Denver</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriott properties and this one stood out. It is very new and in a good location with shopping and mountain views. The front desk was very polite and helpful. The lobby and rooms were very clean and modern. I would stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r503693713-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>503693713</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>New, clean, definitely a good place.</t>
+  </si>
+  <si>
+    <t>My family stayed here as a home base for a family reunion in June/July. My first impression upon walking into the hotel was that it was a very nice place, and every experience I had thereafter confirmed it. The front desk was incredibly nice and helpful every time I walked by. The common areas were beautiful; love the front patio and back area with the fire pit. The rooms are bright, clean, and modern. The only surprise was that breakfast wasn't included with our room—this wasn't a big deal, but it is something to understand upfront. The laundry area was an added bonus for us, too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r497278352-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>497278352</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Very modern looking</t>
+  </si>
+  <si>
+    <t>I believe this is either new or has been remodeled. Room had coffee, refrig and microwave. Free internet was lacking in security, other internet was 5 per day. I think this would be a good place for business but not so much for pleasure stays unless you had a vehicle to go to the mall (very close) and such.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r492188402-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>492188402</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I picked this hotel because of their renovations of course. I thought the the pool might have been to cold but it was 95 degrees outside that day. Impressed with how courtyard renovated their rooms. I've been trying to get my hands on the chair forever and the foam wedge headboard. I know some was maid from the charter furniture company which is unfortunate because it was customized privately with charter. Great food features around the hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r483970045-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>483970045</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>It's very simple - Don't stay here</t>
+  </si>
+  <si>
+    <t>Marriott has done a terrific job with its rejuvenation of the Courtyard brand.  This business-light chain has upgraded its rooms, totally redesigned its food and beverage service and modernized its properties. I have been very impressed with the improvements.  Unfortunately, the seven month old Courtyard Denver North in Westminster is the exception.  This hotel is bad in every way.  My three night stay was one piece of bad news after another.  There is little or no internet service, although on a daily basis the staff recited the following quote; "Our broadband provider shut down the service and has now rebooted everything and the internet is fine."  Except it wasn't.  Hotel staff eventually blamed the provider, but that suggests that Marriott knowingly has an agreement with a sub par broadband company.  No internet service is a constant.  That disappointment was followed by the realization that it is almost impossible to make or receive calls in the hotel on your mobile phone.  Why?  The hotel blames AT&amp;T and Verizon for a lack of signal strength.  Okay, but again, why build a business hotel where there is no signal?  In addition, have they considered signal boosting routers?  The staff's refusal to take any responsibility for the internet or phone problems is especially frustrating.  This position, of course, means that they don't have to help solve the problems.  A very good reason not to stay at a hotel.   Add to this the fact that...Marriott has done a terrific job with its rejuvenation of the Courtyard brand.  This business-light chain has upgraded its rooms, totally redesigned its food and beverage service and modernized its properties. I have been very impressed with the improvements.  Unfortunately, the seven month old Courtyard Denver North in Westminster is the exception.  This hotel is bad in every way.  My three night stay was one piece of bad news after another.  There is little or no internet service, although on a daily basis the staff recited the following quote; "Our broadband provider shut down the service and has now rebooted everything and the internet is fine."  Except it wasn't.  Hotel staff eventually blamed the provider, but that suggests that Marriott knowingly has an agreement with a sub par broadband company.  No internet service is a constant.  That disappointment was followed by the realization that it is almost impossible to make or receive calls in the hotel on your mobile phone.  Why?  The hotel blames AT&amp;T and Verizon for a lack of signal strength.  Okay, but again, why build a business hotel where there is no signal?  In addition, have they considered signal boosting routers?  The staff's refusal to take any responsibility for the internet or phone problems is especially frustrating.  This position, of course, means that they don't have to help solve the problems.  A very good reason not to stay at a hotel.   Add to this the fact that we were locked out of our room by a faulty security device, the staff at the restaurant had to constantly consult recipes to make the simple dishes they provide causing delays in service and  red wines stuffed with corks and set underneath warm lights made the reds undrinkable.  Okay, the last point is not a major issue, but this suggest poor training.  As a Platinum member for life, I can't remember a more disappointing hotel experience with Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dawn O, General Manager at Courtyard by Marriott Denver North/westminster, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Marriott has done a terrific job with its rejuvenation of the Courtyard brand.  This business-light chain has upgraded its rooms, totally redesigned its food and beverage service and modernized its properties. I have been very impressed with the improvements.  Unfortunately, the seven month old Courtyard Denver North in Westminster is the exception.  This hotel is bad in every way.  My three night stay was one piece of bad news after another.  There is little or no internet service, although on a daily basis the staff recited the following quote; "Our broadband provider shut down the service and has now rebooted everything and the internet is fine."  Except it wasn't.  Hotel staff eventually blamed the provider, but that suggests that Marriott knowingly has an agreement with a sub par broadband company.  No internet service is a constant.  That disappointment was followed by the realization that it is almost impossible to make or receive calls in the hotel on your mobile phone.  Why?  The hotel blames AT&amp;T and Verizon for a lack of signal strength.  Okay, but again, why build a business hotel where there is no signal?  In addition, have they considered signal boosting routers?  The staff's refusal to take any responsibility for the internet or phone problems is especially frustrating.  This position, of course, means that they don't have to help solve the problems.  A very good reason not to stay at a hotel.   Add to this the fact that...Marriott has done a terrific job with its rejuvenation of the Courtyard brand.  This business-light chain has upgraded its rooms, totally redesigned its food and beverage service and modernized its properties. I have been very impressed with the improvements.  Unfortunately, the seven month old Courtyard Denver North in Westminster is the exception.  This hotel is bad in every way.  My three night stay was one piece of bad news after another.  There is little or no internet service, although on a daily basis the staff recited the following quote; "Our broadband provider shut down the service and has now rebooted everything and the internet is fine."  Except it wasn't.  Hotel staff eventually blamed the provider, but that suggests that Marriott knowingly has an agreement with a sub par broadband company.  No internet service is a constant.  That disappointment was followed by the realization that it is almost impossible to make or receive calls in the hotel on your mobile phone.  Why?  The hotel blames AT&amp;T and Verizon for a lack of signal strength.  Okay, but again, why build a business hotel where there is no signal?  In addition, have they considered signal boosting routers?  The staff's refusal to take any responsibility for the internet or phone problems is especially frustrating.  This position, of course, means that they don't have to help solve the problems.  A very good reason not to stay at a hotel.   Add to this the fact that we were locked out of our room by a faulty security device, the staff at the restaurant had to constantly consult recipes to make the simple dishes they provide causing delays in service and  red wines stuffed with corks and set underneath warm lights made the reds undrinkable.  Okay, the last point is not a major issue, but this suggest poor training.  As a Platinum member for life, I can't remember a more disappointing hotel experience with Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r466179125-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>466179125</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Friendly &amp; helpful!</t>
+  </si>
+  <si>
+    <t>We spend four nights here for a swim meet in February. I was in a cast and the staff was so helpful! The food and drinks at the lobby cafe were fresh and of good quality.The hotel room and lobby decorations were visually appealing.Will definitely be back!!!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r465313330-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>465313330</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Breakfast NOT Included</t>
+  </si>
+  <si>
+    <t>Recently stayed here 4 nights on a quick weekend trip. Like others have said, the hotel is brand new, very snazzy, and in a great area with shopping nearby. The showers are AWESOME! The reason for 4 stars is only because breakfast was not included. That's a big factor when i'm making hotel reservations, and I was pissed when we found out. I guess my bad for not double checking, but i've never stayed in a Marriott that didn't offer free breakfast. Otherwise, great hotel and great staff!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r450281295-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>450281295</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>New, clean and friendly but don't have act together yet</t>
+  </si>
+  <si>
+    <t>Nice new Courtyard. People were friendly but it looks like they still have some work to do to get things up to speed. Each morning breakfast set up was late. Attempted to get dry cleaning done same day as per their stated service only to find out that they had not got things set up for a weekend pick up. Ended up having to buy a shirt to get me through. Place will be great once they get the bugs worked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Nice new Courtyard. People were friendly but it looks like they still have some work to do to get things up to speed. Each morning breakfast set up was late. Attempted to get dry cleaning done same day as per their stated service only to find out that they had not got things set up for a weekend pick up. Ended up having to buy a shirt to get me through. Place will be great once they get the bugs worked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r439520397-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>439520397</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Brand New, Quiet and Great location</t>
+  </si>
+  <si>
+    <t>Hotels in the suburbs normally are not in a great locations but this brand new hotel by the Marriott is the exception. The hotel sits across the street from the outdoor Orchards Mall. The hotel has everything you want. They were even able to get me in my room early without a surcharge. Staff was great and the room was fantastic.  The Price was great too. I couldn't find anything really to complain about.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r438066586-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>438066586</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Brand New and Lovely</t>
+  </si>
+  <si>
+    <t>We stayed for two nights and found this hotel to be a fantastic!  It is very new.  The rooms are well designed and modern.  The staff couldn't be more friendly and helpful.  Location is convenient to I-25, shopping and a hospital.  About 20 minutes from the airport.  One of the best Courtyards we've ever visited!  We guarantee that you will be comfortable and well taken care of here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r426430244-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>426430244</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Beautiful room, amazing service!</t>
+  </si>
+  <si>
+    <t>This is a beautiful hotel located in a lovely area near restaurants, shopping centers and a hospital. The staff here goes above and beyond for their guest. I was particularly impressed with Greg for his quick service, friendly manner and genuine care for the hotel guests. Ms. Cathy at the front desk is an exceptional person who kindly assisted me with any questions I had. I highly recommends this hotel based on the great location, outstanding service and beautiful decor. Many thanks!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r426129810-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>426129810</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>Stayed here just one night to go to the Great American Beer Festival. This is a beautiful, up to date hotel. The bed was comfortable, the room was quiet, and the staff was very friendly. There is Starbucks coffee to buy at the cafe downstairs. Also, the light rail station is right across the parking lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r424631642-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>424631642</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>You really can't find a better motel in the area.  The property is brand new so everything is spotlessly clean and fresh. It is family oriented and very quiet.  My room was right at the elevators and I never heard the elevators.  Great shower, towels and good room size.   The staff is wonderful and helpful.  The location is excellent, right in the middle of a parking lot with little restaurants anda Caribou coffee. I was traveling alone and felt very safe.  Across the street is a large shopping complex so anything you need is right there.  I was even able to get a Lyft car to the airport at 330 in the morning.  Best of all, I left a piece of clothing behind when I checked out-they found it and they are mailing it to me......so you just can't go wrong staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>You really can't find a better motel in the area.  The property is brand new so everything is spotlessly clean and fresh. It is family oriented and very quiet.  My room was right at the elevators and I never heard the elevators.  Great shower, towels and good room size.   The staff is wonderful and helpful.  The location is excellent, right in the middle of a parking lot with little restaurants anda Caribou coffee. I was traveling alone and felt very safe.  Across the street is a large shopping complex so anything you need is right there.  I was even able to get a Lyft car to the airport at 330 in the morning.  Best of all, I left a piece of clothing behind when I checked out-they found it and they are mailing it to me......so you just can't go wrong staying here.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +946,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +978,1342 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>126</v>
+      </c>
+      <c r="X14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_38.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_38.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,146 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r612092776-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>10533352</t>
+  </si>
+  <si>
+    <t>612092776</t>
+  </si>
+  <si>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is new and very clean. The room was spacious and had a view of the mountains. Love the extra large shower. Nice friendly staff. Location was convenient right off interstate and so close to shopping. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r609257108-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>609257108</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Substandard Customer Service</t>
+  </si>
+  <si>
+    <t>Will not be staying here again.  At check-in was given a room that I had not reserved.  Booked well in advance of stay.  Clerk never said a word and let me drag all my luggage and supplies to the room.  Was in a hurry and had to leave.  Wasn't until I returned to hotel that I realized the room wasn't right.  Had to go back down to the desk then drag all my stuff to the correct room.  Clerk said there was a shortage of the room I had requested (but now one magically appeared).   Wouldn't have been as much as a big deal if clerk would have been more forthcoming. No Gold level handling here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dawn O, General Manager at Courtyard by Marriott Denver North/westminster, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Will not be staying here again.  At check-in was given a room that I had not reserved.  Booked well in advance of stay.  Clerk never said a word and let me drag all my luggage and supplies to the room.  Was in a hurry and had to leave.  Wasn't until I returned to hotel that I realized the room wasn't right.  Had to go back down to the desk then drag all my stuff to the correct room.  Clerk said there was a shortage of the room I had requested (but now one magically appeared).   Wouldn't have been as much as a big deal if clerk would have been more forthcoming. No Gold level handling here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r607858214-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>607858214</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Improper credit card usage.</t>
+  </si>
+  <si>
+    <t>Spoke with Su. She was flat out rude and awful to us. I reserved a room for a friend arriving late in the evening. Midnight to be exact. my credit card was given OVER THE PHONE at 3pm. I asked Antonio the gentleman over the phone if they would run the credit card prior to check in, he told me there would be NO reason too, this was simply to hold the reservation. WHICH IS STANDARD. Having never seen my ID or having never received my approval. They ran my credit card at 6pm. And it did not clear for the whole stay. Because this was not the card to be used during the stay. I’ve worked for marriott for over 7 years. THIS IS NOT STANDARD. They do not run the credit card until check in. YOU DID NOT HAVE MY AUTHORIZATION TO RUN THIS CREDIT CARD. THIS IS A HORRIBLE PROPERTY WITH HORRIBLE CUSTOMER SERVICE AND IMPROPER CARD PRIVACY ETIQUETTE. Your overnight front desk attendant told me it wasn’t her “f’ing fault” and I should take my business elsewhere, insisting the Ramada down the road had rooms, for 30$ more per night. When I asked why the credit card was ran when it shouldn’t have been she simply replied, “ I don’t know or frankly care!”  UNREAL. And your general manager knows. This is not up to Marriott Standards. You should be ashamed.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Spoke with Su. She was flat out rude and awful to us. I reserved a room for a friend arriving late in the evening. Midnight to be exact. my credit card was given OVER THE PHONE at 3pm. I asked Antonio the gentleman over the phone if they would run the credit card prior to check in, he told me there would be NO reason too, this was simply to hold the reservation. WHICH IS STANDARD. Having never seen my ID or having never received my approval. They ran my credit card at 6pm. And it did not clear for the whole stay. Because this was not the card to be used during the stay. I’ve worked for marriott for over 7 years. THIS IS NOT STANDARD. They do not run the credit card until check in. YOU DID NOT HAVE MY AUTHORIZATION TO RUN THIS CREDIT CARD. THIS IS A HORRIBLE PROPERTY WITH HORRIBLE CUSTOMER SERVICE AND IMPROPER CARD PRIVACY ETIQUETTE. Your overnight front desk attendant told me it wasn’t her “f’ing fault” and I should take my business elsewhere, insisting the Ramada down the road had rooms, for 30$ more per night. When I asked why the credit card was ran when it shouldn’t have been she simply replied, “ I don’t know or frankly care!”  UNREAL. And your general manager knows. This is not up to Marriott Standards. You should be ashamed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r603945399-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>603945399</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>On point!</t>
+  </si>
+  <si>
+    <t>It's hard to decide what I like best about this hotel. The food options in the area are excellent, the breakfast they offer IN the hotel was excellent, and the staff was Excellent as well. I capitalized the E in that last one because I arrived pretty late and they were extremely sweet throughout the entire process. Big props to Courtyard over here, will be back soon!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r589823721-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>589823721</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Shiny and new but lacks customer service and room necessities</t>
+  </si>
+  <si>
+    <t>This is a new Courtyard and you would think it would be super functional and strive for the best practices in Marriott standards.  The rooms are adequate but the fridges are the smallest I have every seen and worthless for even putting a simple to go box in.  They promised a shuttle for a wedding we attended and we all left early due to the driver insisting they were quitting an hour before we were told the shuttle service would end.  Sad for the bride and groom plus their families, the guests vanished on them.  (We felt awful but the didn't drive our vehicle as the hotel "had shuttle service".) 
+ Several even took UBER because they were "stranded" at the venue when promised a shuttle service that was unreliable and only held 5 passengers - smaller than a standard mini van.  There is no breakfast at the Courtyard and they had the coffee bar shut down very early. Fortunately, there is an abundance of breakfast options right outside the door and with friendlier service for my morning coffee. The front desk was polite and appeared to be accommodating but didn't follow through when asked questions or requests.  Overall, I feel bad for the wedding hosts and if I were the wedding venue would not continue relations with this hotel until they have adequate and reliable shuttle service if they say they provide it.  It is a clean, basic hotel and...This is a new Courtyard and you would think it would be super functional and strive for the best practices in Marriott standards.  The rooms are adequate but the fridges are the smallest I have every seen and worthless for even putting a simple to go box in.  They promised a shuttle for a wedding we attended and we all left early due to the driver insisting they were quitting an hour before we were told the shuttle service would end.  Sad for the bride and groom plus their families, the guests vanished on them.  (We felt awful but the didn't drive our vehicle as the hotel "had shuttle service".)  Several even took UBER because they were "stranded" at the venue when promised a shuttle service that was unreliable and only held 5 passengers - smaller than a standard mini van.  There is no breakfast at the Courtyard and they had the coffee bar shut down very early. Fortunately, there is an abundance of breakfast options right outside the door and with friendlier service for my morning coffee. The front desk was polite and appeared to be accommodating but didn't follow through when asked questions or requests.  Overall, I feel bad for the wedding hosts and if I were the wedding venue would not continue relations with this hotel until they have adequate and reliable shuttle service if they say they provide it.  It is a clean, basic hotel and expensive for what you get.  I have stayed at much better Courtyards for far less money.  One might want to go to the other side of the interstate for their accommodations if staying in the area.  Very disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>This is a new Courtyard and you would think it would be super functional and strive for the best practices in Marriott standards.  The rooms are adequate but the fridges are the smallest I have every seen and worthless for even putting a simple to go box in.  They promised a shuttle for a wedding we attended and we all left early due to the driver insisting they were quitting an hour before we were told the shuttle service would end.  Sad for the bride and groom plus their families, the guests vanished on them.  (We felt awful but the didn't drive our vehicle as the hotel "had shuttle service".) 
+ Several even took UBER because they were "stranded" at the venue when promised a shuttle service that was unreliable and only held 5 passengers - smaller than a standard mini van.  There is no breakfast at the Courtyard and they had the coffee bar shut down very early. Fortunately, there is an abundance of breakfast options right outside the door and with friendlier service for my morning coffee. The front desk was polite and appeared to be accommodating but didn't follow through when asked questions or requests.  Overall, I feel bad for the wedding hosts and if I were the wedding venue would not continue relations with this hotel until they have adequate and reliable shuttle service if they say they provide it.  It is a clean, basic hotel and...This is a new Courtyard and you would think it would be super functional and strive for the best practices in Marriott standards.  The rooms are adequate but the fridges are the smallest I have every seen and worthless for even putting a simple to go box in.  They promised a shuttle for a wedding we attended and we all left early due to the driver insisting they were quitting an hour before we were told the shuttle service would end.  Sad for the bride and groom plus their families, the guests vanished on them.  (We felt awful but the didn't drive our vehicle as the hotel "had shuttle service".)  Several even took UBER because they were "stranded" at the venue when promised a shuttle service that was unreliable and only held 5 passengers - smaller than a standard mini van.  There is no breakfast at the Courtyard and they had the coffee bar shut down very early. Fortunately, there is an abundance of breakfast options right outside the door and with friendlier service for my morning coffee. The front desk was polite and appeared to be accommodating but didn't follow through when asked questions or requests.  Overall, I feel bad for the wedding hosts and if I were the wedding venue would not continue relations with this hotel until they have adequate and reliable shuttle service if they say they provide it.  It is a clean, basic hotel and expensive for what you get.  I have stayed at much better Courtyards for far less money.  One might want to go to the other side of the interstate for their accommodations if staying in the area.  Very disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r585098735-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>585098735</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Nice Newer Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights and very happy with our choice. Conveniently located close to shopping and many restaurants. Hotel was clean and staff was very friendly. I would stay here again if I'm in the area.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r578915786-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
-    <t>33691</t>
-  </si>
-  <si>
-    <t>10533352</t>
-  </si>
-  <si>
     <t>578915786</t>
   </si>
   <si>
@@ -171,12 +299,6 @@
     <t>We stayed at this hotel for one night So we could get out of our house. This is a newer hotel within walking distance of many eateries, a hospital, and a movie theater. The service was great, and the staff was friendly and helpful. One thing that stuck out for me was the fact that the hotel supplied pool toys. I have never stayed at a hotel that kept its littlest customer in mind.  Also, the room was spacious, and we were able to move around even with the pull-out couch open. I would definitely recommend!</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r576255439-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -195,9 +317,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r566158277-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -213,6 +332,48 @@
     <t>Very nice facility.  Easy in and out.  Near I75 but not noisy.  Good breakfast.  Friendly and accommodating staff.  Wi-Fi.  We had a very enjoyable stay visiting grandchildren in area.  Easy access to Denver and Boulder.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r564143130-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>564143130</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Great Suburban Hotel with Modern Style</t>
+  </si>
+  <si>
+    <t>I’ve stayed at a number of Marriott Courtyards and this is the nicest Courtyard location I’ve ever seen.  It’s located in a sea of strip malls and is walking distance to a number of chain restaurants and a Target.  The room are very modern and stylish.  We booked a suite which had a nice sitting area and a second tv.  The room was twice the size of a normal hotel room and had plenty of space for our family.  The front desk was extremely helpful and friendly. We had several special requests that were gladly accommodated.   The only downside is that we bought a pastry from the bistro that tasted like it had been in the display case for a week.  Otherwise a wonderful stay and great value for the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I’ve stayed at a number of Marriott Courtyards and this is the nicest Courtyard location I’ve ever seen.  It’s located in a sea of strip malls and is walking distance to a number of chain restaurants and a Target.  The room are very modern and stylish.  We booked a suite which had a nice sitting area and a second tv.  The room was twice the size of a normal hotel room and had plenty of space for our family.  The front desk was extremely helpful and friendly. We had several special requests that were gladly accommodated.   The only downside is that we bought a pastry from the bistro that tasted like it had been in the display case for a week.  Otherwise a wonderful stay and great value for the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r555371557-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>555371557</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>We loved this hotel. It was beautiful and had lots of places to just chill and relax in a comfortable and pretty atmosphere. Lots of places to eat nearby. Easy on and off I-25. I got a great deal on priceline as others were paying over $100 a night.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r549567199-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -231,9 +392,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We stopped here driving through for one night. We arrived pretty late but our room was waiting with online check-in. This is a new Courtyard so everything is still nice and clean and well maintained. We would expect this to be the same as all Courtyards. The staff was nice and friendly and polite. Our room was a standard king. They are a bit tight but not bad for one night. The noise between rooms is a little too much. We had a connecting room and were able to hear the room next to us talking on the phone as if the door was open. Other than that everything was as expected at a Courtyard for a quick stop over. More</t>
   </si>
   <si>
@@ -276,6 +434,33 @@
     <t>by the room size, bath size, I would call them an average property for the price they charge. They have an 'over the counter' kind of restaurant that has limited options to offer. Having said, whatever they serve is good in quality and also tastes good. The staff is also very cordial.The hotel doesn't offers Laundry service over the weekends. Hence , plan accordingly. I had reached there after a week stay at Brussels hence had quite a few stuffs to be laundered.The reception desk ladies and the housekeeping staff are helpful enough to help you do laundry at hotel's washing machine.Except for the limited choice of food availability and for the laundry service not available over weekend, its a recommended place to stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r539546142-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>539546142</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This newly made hotel was one of the most beautiful hotels I've stayed in my life.  Beautiful fire pit, indoor pool and hot tub.  Food is out of this world.  The staff on too of it all is super friendly.  Our rooms had a gorgeous glass shower, keurig,  mini fridge, and microwave, I also had a great view of the Rockies!  The staff was so kind and even helped us with a few suggestions on places to go when we got done our work meetings.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r533417923-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>533417923</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>High Quality Marriott Location</t>
+  </si>
+  <si>
+    <t>As of our stay in October 2017, this was a very clean and new (~1 year old) Marriott location in the upscale north suburbs of Denver/Westminster.  It was well-located to avoid the worst of traffic when heading up towards Rocky Mountain National Park, or towards DEN International Airport.  Note that some rooms face towards a busy intersection, but the noise was not noticeable with the window closed.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r527840524-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -333,6 +518,36 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r509166780-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>509166780</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Super clean and modern</t>
+  </si>
+  <si>
+    <t>Highly recommend won't be disappointed.  Hotels is very clean and modern.  The rooms are good size, beds are comfortable.  Bar closes a bit early for a Friday night, 10pm.  They offer Starbucks coffee and their breakfast is pretty good.  They had a pool and work out room, we did use either</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r504162164-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>504162164</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Nice modern hotel</t>
+  </si>
+  <si>
+    <t>Upon arrival the check in was super crowded but the employees were very apologetic and quick to get everyone helped. Hotel has great modern decor. It was a nice quiet comfortable place to stay. And it looks clean as well. Comfortable beds and large bathroom. We had 3 rooms and even relaxed and visited outside around the fire with our group. Tons of lounge furniture, games and books in the lobby. Gives it a family room feel more than a hotel lobby. Would definitely stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r503693713-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -381,6 +596,42 @@
     <t>I picked this hotel because of their renovations of course. I thought the the pool might have been to cold but it was 95 degrees outside that day. Impressed with how courtyard renovated their rooms. I've been trying to get my hands on the chair forever and the foam wedge headboard. I know some was maid from the charter furniture company which is unfortunate because it was customized privately with charter. Great food features around the hotel!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r487990481-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>487990481</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Definitely Recommend</t>
+  </si>
+  <si>
+    <t>Located &lt;1 mile from I-25, this is not your grandfather's Marriott Courtyard, rather, it is brand new, very contemporary with a boutique hotel feel. The lobby offers a coffee bar serving Starbucks and breakfast food in the mornings and a full bar in the evenings. Our room had a settee; desk; comfortable King bed; 40+" flat screen TV; coffee service; and a small refrigerator. The bathroom is well configured with excellent lighting and a large shower stall. We enjoyed beautiful views of the Rocky Mountain range and a glorious sunset from the 4th floor. Within the parking area, you will find Caribou Coffee/Einstein's bagel, Noodles &amp; Co, Jimmy John's and Brixx Pizza. Within 2-3 long blocks walk is the Orchard Town Center complex with numerous restaurant and shops.MoreShow less</t>
+  </si>
+  <si>
+    <t>Located &lt;1 mile from I-25, this is not your grandfather's Marriott Courtyard, rather, it is brand new, very contemporary with a boutique hotel feel. The lobby offers a coffee bar serving Starbucks and breakfast food in the mornings and a full bar in the evenings. Our room had a settee; desk; comfortable King bed; 40+" flat screen TV; coffee service; and a small refrigerator. The bathroom is well configured with excellent lighting and a large shower stall. We enjoyed beautiful views of the Rocky Mountain range and a glorious sunset from the 4th floor. Within the parking area, you will find Caribou Coffee/Einstein's bagel, Noodles &amp; Co, Jimmy John's and Brixx Pizza. Within 2-3 long blocks walk is the Orchard Town Center complex with numerous restaurant and shops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r485111996-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>485111996</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is relatively new (less than a year old). The staff were courteous and cordial. The room was immaculate and included a refrigerator, microwave and very nice sofa w/bed. The bathroom was also immaculate and I was very appreciative of the walk-in shower and double vanities.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r483970045-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -441,6 +692,39 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r464295396-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>464295396</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>New hotel in a nice area. Please don't tell anybody as it will get too popular</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights on a recent business trip to the area. Since this is a new hotel first time we stayed here. We will definitely be back. Rooms are very neat and tidy and the beds are extremely comfortable. Only complaint with the pillows were substandard. Seem to either be extremely large or way to flat. No happy medium. Rooms are quiet and the showers are large and comfortable. You can easily to several places to have breakfast and at least a dozen restaurants for dinner. Nice if you want to have a beer and not worried about getting back to the hotel. Good location right off I 25 but no traffic noise was noticed. Would definitely stay here again and is one of the nicer hotels in the area. Good bang for the buck. We did not eat breakfast on site as we had early meetings.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights on a recent business trip to the area. Since this is a new hotel first time we stayed here. We will definitely be back. Rooms are very neat and tidy and the beds are extremely comfortable. Only complaint with the pillows were substandard. Seem to either be extremely large or way to flat. No happy medium. Rooms are quiet and the showers are large and comfortable. You can easily to several places to have breakfast and at least a dozen restaurants for dinner. Nice if you want to have a beer and not worried about getting back to the hotel. Good location right off I 25 but no traffic noise was noticed. Would definitely stay here again and is one of the nicer hotels in the area. Good bang for the buck. We did not eat breakfast on site as we had early meetings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r457718008-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>457718008</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Great, New &amp; Stylish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you're in Westminster or you or a relative are visiting the hospital centers in the area, this is a great place to call it home. They Courtyard is new and adorned in their modern style of living that encourages collaborative environments. You have plenty of social and work areas in the lobby, making this a great place to meet with colleagues and friends. The hotel is also in a great area with quick coffee shops, sandwich and pizza parlors too. Fancier places are a quick 5 minute ride. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r450281295-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -499,6 +783,36 @@
   </si>
   <si>
     <t>We stayed for two nights and found this hotel to be a fantastic!  It is very new.  The rooms are well designed and modern.  The staff couldn't be more friendly and helpful.  Location is convenient to I-25, shopping and a hospital.  About 20 minutes from the airport.  One of the best Courtyards we've ever visited!  We guarantee that you will be comfortable and well taken care of here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r436431679-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>436431679</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Courtyard Westminster, CO.</t>
+  </si>
+  <si>
+    <t>Kudos to Lance at the front desk! My son stayed at this location for a week. He said the property was immaculate and his room was cozy and spotless. Top notch customer service!! This is the best hotel to stay.. vast amount of retail shopping and delicious restaurants!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r435432258-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>435432258</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Quiet and Near The Best Mall I've Ever Been To</t>
+  </si>
+  <si>
+    <t>The Courtyard rooms all look the same, the TV is in a weird spot if you are trying to watch it from bed but the rooms are clean, the staff friendly - the air conditioner actually worked which allowed us to turn on the fan and use it for white noise as to not hear other people next door or in the hall.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d10533352-r426430244-Courtyard_by_Marriott_Denver_North_westminster-Westminster_Colorado.html</t>
@@ -1087,7 +1401,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1144,31 +1458,37 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1184,7 +1504,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1193,22 +1513,26 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1218,10 +1542,14 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" t="s">
+        <v>59</v>
+      </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1237,7 +1565,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1246,32 +1574,36 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1294,7 +1626,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1303,39 +1635,45 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1689,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1360,30 +1698,30 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
@@ -1412,45 +1750,41 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1502,12 +1836,16 @@
       <c r="O9" t="s">
         <v>52</v>
       </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1553,22 +1891,14 @@
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" t="s">
-        <v>52</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1591,54 +1921,48 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
         <v>105</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
-      </c>
       <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1654,7 +1978,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1663,37 +1987,35 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1701,7 +2023,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1717,7 +2039,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1726,25 +2048,25 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
         <v>117</v>
-      </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1758,7 +2080,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +2096,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1783,47 +2105,39 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>126</v>
-      </c>
-      <c r="X14" t="s">
-        <v>127</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -1839,7 +2153,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1848,33 +2162,31 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
         <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -1886,7 +2198,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1902,7 +2214,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1911,45 +2223,39 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -1965,7 +2271,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1974,43 +2280,45 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>147</v>
-      </c>
-      <c r="X17" t="s">
-        <v>148</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2026,43 +2334,41 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
         <v>150</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>151</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>152</v>
       </c>
-      <c r="K18" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>155</v>
-      </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2073,7 +2379,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -2089,54 +2395,48 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
         <v>156</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>157</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>158</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>159</v>
       </c>
-      <c r="L19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>155</v>
-      </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -2152,48 +2452,52 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>162</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>163</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>164</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>165</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>166</v>
-      </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -2209,48 +2513,54 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
         <v>167</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>168</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>169</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>170</v>
       </c>
-      <c r="L21" t="s">
-        <v>171</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
@@ -2266,54 +2576,1142 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>172</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>173</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>174</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>175</v>
       </c>
-      <c r="L22" t="s">
-        <v>176</v>
-      </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
         <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>152</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>209</v>
+      </c>
+      <c r="X28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X33" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>270</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>270</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65294</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>270</v>
+      </c>
+      <c r="O40" t="s">
+        <v>281</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
